--- a/data/summary_22071510.xlsx
+++ b/data/summary_22071510.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,1353 +406,1509 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>21.52265193370166</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>986</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.4745966942148761</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.4776842975206612</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.890727485398639</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.820444710634657e-005</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>21.58287292817679</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.69060773480663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>21.27624309392265</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>986.1082872928178</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.4885867768595041</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.5034099173553719</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.89346574244931</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0001304862159085409</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>21.4878453038674</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.711049723756906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>21.43480662983426</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>986.0806629834254</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.4221851239669421</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.4374760330578512</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.530348184585839</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-3.869076538263673e-017</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>21.3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.720441988950276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>21.72375690607735</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>986.2812154696132</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.4062776859504133</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4449371900826447</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.456142058646087</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-3.866070740714328e-017</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>21.49337016574586</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5.190055248618784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>21.05911602209945</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>986.3198895027624</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.2814661157024793</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.2561165289256198</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.810139727598271</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.341331534002893e-017</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>21.2414364640884</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.751381215469614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>20.72154696132597</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>986.4</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.3522768595041322</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.359995041322314</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.247335428593476</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-4.397641381923813e-005</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>21.1</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.852486187845304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>20.29447513812155</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>986.4701657458563</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3775809917355372</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4132603305785124</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.250767910516246</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.494480148815696e-018</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>20.70994475138122</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.480110497237569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>20.19613259668508</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>986.5237569060773</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.4417330578512397</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.4307619834710744</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.760081175778323</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>8.926400821950576e-005</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>20.5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.458563535911602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>20.13259668508287</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>986.5861878453039</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.3512330578512397</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.3544702479338843</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.179621676933721</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.990962054707907e-018</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>20.5</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3.50828729281768</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>20.17845303867403</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>986.5944751381215</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.3985801652892562</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.4407148760330579</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.251942368075053</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2.990519522697637e-018</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>20.5</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.680110497237569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>20.24198895027624</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>986.6552486187845</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3519330578512397</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.371404132231405</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.106329060843068</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.0001152074586972297</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>20.5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3.037569060773481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>20.38397790055248</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>986.6850828729282</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3247289256198347</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.3162148760330579</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.105373321307437</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.22641892650498e-005</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>20.56740331491713</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3.013259668508288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>21.04640883977901</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>986.7679558011049</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.4001644628099174</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.3784099173553719</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.535456420060668</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.0001267826796620724</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>20.79723756906077</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.996685082872928</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>21.61049723756906</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>986.8044198895027</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.4493388429752066</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.506601652892562</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.603000895523606</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>9.8568061294545e-005</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>20.9</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4.697790055248619</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>22.09447513812155</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>986.8950276243094</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.5666239669421488</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.5630314049586777</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3.537487468965697</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.000126759947135869</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>21.10662983425415</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4.723204419889503</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>22.64364640883978</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>986.9944751381215</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.3364892561983471</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.3361429752066116</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.08993662694593</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>8.617390028965916e-005</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>21.40386740331492</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>23.40552486187845</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>987.0994475138122</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.2808586776859504</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.2733727272727273</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.797229633802508</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>8.977974963664506e-005</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>21.90773480662983</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.564640883977901</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>23.70497237569061</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>987.118232044199</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.5591628099173553</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.6876867768595041</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2.944537932101746</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.0001339414474462931</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>22.1</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.08232044198895</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>24.96519337016575</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>988.0099447513812</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.516807438016529</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.4663</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>3.364206042632295</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.217384946581478e-005</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>24.05745856353591</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>8.404419889502762</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>24.32541436464089</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>988.0342541436464</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.4443462809917355</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.4461074380165289</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.797650916613866</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-2.805470809280797e-017</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>23.50110497237569</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>11.59226519337017</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>24.00055248618785</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>988.1121546961326</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.4249694214876033</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.4146628099173554</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2.65729430175321</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-2.660930346660083e-017</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>23.09281767955801</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>8.483977900552485</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>23.76961325966851</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>988.1176795580111</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.4034867768595041</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.4049322314049587</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2.515626906922831</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-3.846577479707167e-017</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>22.8</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>4.538674033149172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>23.59723756906077</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>988.1127071823205</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.3983074380165289</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.3999785123966942</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2.517076266681705</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>4.776347590900475e-005</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>22.63314917127072</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>4.229281767955802</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>23.70662983425414</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>988.2154696132598</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.2912595041322314</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.274897520661157</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.869333088052517</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>8.198091083091716e-005</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>22.6</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>4.186740331491713</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>25.49779005524862</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>988.221546961326</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.2851644628099174</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.2647314049586777</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.858127430187443</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.0002368012484658207</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>22.9353591160221</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>3.059116022099448</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>26.56408839779006</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>988.228729281768</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.3359595041322314</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.3190710743801653</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.1363771720552</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.0001748674097126894</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>23.5</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>3.741988950276243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>25.5171270718232</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>988.1657458563536</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.4793619834710744</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.6485314049586777</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2.858311002859145</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.694145884862638e-005</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>23.50552486187845</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>10.64696132596685</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>25.19889502762431</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>988.1883977900553</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.5042752066115702</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.4972322314049587</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>3.147569621023268</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2.875290511539209e-006</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>23.44696132596685</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>10.35801104972376</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>25.69171270718232</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>988.1977900552487</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.3439933884297521</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.316798347107438</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2.213968037756408</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.0001312904503719502</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>23.5</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>7.295580110497237</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>25.93038674033149</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>988.0154696132597</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.5383719008264463</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.5231330578512397</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>3.424710503162167</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.0001311529694931788</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>23.5</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>9.160773480662982</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>26.47624309392265</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>988.0889502762432</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.7663760330578513</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.6482256198347107</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>5.199307150735504</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>7.923600523164935e-005</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>23.58839779005525</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>8.06574585635359</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>27.00828729281768</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>988.1502762430939</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.5318173553719008</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.4608793388429752</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>3.412871446793154</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.0002764410072462209</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>23.82486187845304</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>7.58121546961326</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>27.5939226519337</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>988.0640883977901</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.3838628099173554</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.3638776859504132</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>2.412530341249774</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.0001816688762360387</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>24.31049723756906</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>4.976795580110498</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>28.253591160221</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>988.0685082872928</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.4079644628099173</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.3318404958677686</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2.761266854704974</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>4.217878901721134e-005</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>24.7</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>7.916022099447514</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>28.4646408839779</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>987.9977900552486</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.3989338842975206</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.2880876033057851</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2.900630418930593</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1.120664274072298e-005</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>24.7585635359116</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>10.59944751381216</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>37.05469613259668</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>987.5226519337017</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.1905537190082645</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.1223677685950413</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1.375079147360543</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.000266103543111305</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>29.73038674033149</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>3.506077348066298</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>36.14806629834254</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>987.5574585635359</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.2489165289256198</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.2374958677685951</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1.586034473825236</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>8.057712670457062e-005</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>30.29226519337017</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2.592817679558011</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>38.39116022099447</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>987.5817679558011</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.238399173553719</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.2372801652892562</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1.506185327772196</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.0001146569017703654</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>31.22430939226519</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>2.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>36.75248618784531</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>987.5414364640884</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.2016603305785124</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.1685140495867769</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>1.307624578871106</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>-9.610884103643336e-005</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>31.68011049723757</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.9662983425414364</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>34.83370165745856</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>987.5005524861879</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.2183925619834711</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.193497520661157</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1.454217695929275</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>-7.078739936673697e-005</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>31.4</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>1.469613259668508</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>35.3060773480663</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>987.4966850828729</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.4075107438016529</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.3887553719008264</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>2.627399453280722</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.0001710944680964575</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>31.1</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>7.97292817679558</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>37.93038674033149</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>987.4900552486188</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.4478421487603306</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.4551652892561984</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>2.810880405998036</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.0003164498891097428</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>32.0182320441989</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>2.365193370165746</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>39.50110497237569</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>987.4386740331491</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.2960826446280992</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.285104132231405</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>1.841667768512704</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.0003471506266056465</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>33.1</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>9.785635359116021</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>40.80497237569061</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>987.4740331491713</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.2513033057851239</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.2272487603305785</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>1.630294460103003</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.0001494842908984414</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>33.0889502762431</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>5.800552486187845</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>41.50110497237569</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>987.4016574585635</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.3791396694214876</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.3424371900826446</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>2.439849987365049</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>-1.23339255515294e-005</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>33.23756906077348</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>7.277900552486188</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>39.65524861878453</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>987.3149171270718</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.3814652892561983</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.3552</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>2.385871048374626</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.0001301379860830365</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>33.8</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>4.687845303867404</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>38.02265193370166</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>987.3</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.2353314049586777</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.2253272727272727</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>1.507539657613344</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>2.592517929373973e-006</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>33.8</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>2.780110497237569</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>37.51104972375691</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>987.2530386740332</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.2117818181818182</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.193202479338843</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>1.372683341349076</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.0001229135012033807</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>33.8</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>1.450828729281768</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>38.18674033149171</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>987.2055248618785</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.1668504132231405</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.153902479338843</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>1.027227649588966</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.0002936744657228672</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>34.29281767955801</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>2.024309392265193</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>40.56353591160221</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>987.1657458563536</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.3597628099173554</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.3270371900826447</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>2.310640540737817</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.0003549044793972913</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>35.37955801104972</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1.842541436464088</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
         <v>42.74640883977901</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>987.0171270718232</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.3142305785123967</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0.2988404958677686</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>1.956920643837119</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.0002763220544782213</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>35.7</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>14.78066298342542</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
         <v>44.50220994475138</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>986.8983425414365</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>0.3770669421487604</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0.3663305785123967</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>2.348457251713645</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.0001450573392325278</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>35.82154696132597</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>5.324861878453039</v>
       </c>
     </row>
